--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\BOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\nataly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1362F008-58CB-4478-B297-E0297E16235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB0CD4E-93B0-4061-A6B0-4DD2D0A9375F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,2082 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="712">
   <si>
     <t>SKU</t>
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>1019422</t>
+  </si>
+  <si>
+    <t>1019908</t>
+  </si>
+  <si>
+    <t>1021324</t>
+  </si>
+  <si>
+    <t>1020496</t>
+  </si>
+  <si>
+    <t>1021325</t>
+  </si>
+  <si>
+    <t>1021326</t>
+  </si>
+  <si>
+    <t>1021266</t>
+  </si>
+  <si>
+    <t>1019828</t>
+  </si>
+  <si>
+    <t>1020498</t>
+  </si>
+  <si>
+    <t>1021031</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2d86d8e2-622b-4a21-ab27-a1780f593bba.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b57b618d-8801-499e-8e3e-c21b358e93af.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/55c5a53b-47ec-4368-9b37-2b929ca97cd8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4b0be6ac-ac83-4053-b33f-828ce51f66da.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/eb9c66c3-e2a5-4877-8245-0b202345e947.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/61ffb16e-fc24-41e5-b8bf-e2ce7707f1c7.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1f543929-7c99-4356-a40c-1425ae617867.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2b3ad13c-416a-4ae4-9fde-2860fac12f3a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/672d2c04-5f69-4c22-87f7-75773951eb93.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cb15b47c-8303-4b08-8781-ead2e52b4d7f.jpg</t>
+  </si>
+  <si>
+    <t>1016583</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3ccfd58e-ca2b-4758-ae0d-058c2d92299e.jpg</t>
+  </si>
+  <si>
+    <t>1019025</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/79b8bc1a-a1e6-4165-924c-8b01cd9cea05.jpg</t>
+  </si>
+  <si>
+    <t>1015949</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cf3c624c-cfda-4b68-8a1a-24cc5ba62f58.jpg</t>
+  </si>
+  <si>
+    <t>1016561</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3e3bfb24-aa34-49c5-888b-cc2942dba433.jpg</t>
+  </si>
+  <si>
+    <t>1020107</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/29ca1130-f897-4b15-b671-0240dc9c3da7.jpg</t>
+  </si>
+  <si>
+    <t>1019581</t>
+  </si>
+  <si>
+    <t>1020109</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f06a9096-96cf-4735-b443-1f6104bf420c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f8cd55b8-ed87-4078-b2cc-2db0efc38e07.jpg</t>
+  </si>
+  <si>
+    <t>1019839</t>
+  </si>
+  <si>
+    <t>1019831</t>
+  </si>
+  <si>
+    <t>1020099</t>
+  </si>
+  <si>
+    <t>1020512</t>
+  </si>
+  <si>
+    <t>1017118</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/960c0d20-a359-48a0-a773-df482acd2782.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f5553cfe-5883-4fba-8333-e0daab241d38.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/0a2205d3-b6ff-44fa-ae91-5e07092696f5.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7992abb8-bba2-4a56-a646-9b10bc0d7db8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/31928509-e31e-42f6-a136-e2a5f96ba754.jpg</t>
+  </si>
+  <si>
+    <t>1020497</t>
+  </si>
+  <si>
+    <t>1020499</t>
+  </si>
+  <si>
+    <t>1020515</t>
+  </si>
+  <si>
+    <t>1008425</t>
+  </si>
+  <si>
+    <t>1008427</t>
+  </si>
+  <si>
+    <t>1008433</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e0606814-63c8-4c7b-b3d5-1a246270ee3a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ec11b92d-5403-4227-8a7f-81b4a6d7909b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ef459d98-9b21-4d68-8031-23b92d629a26.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a8b4195d-c8c0-4fc4-afe8-649128c49307.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4f29f071-75f7-4c3a-adb0-16ab35d09d2d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a8ceaab9-989b-4da7-b881-4ebf74ba1e4c.jpg</t>
+  </si>
+  <si>
+    <t>1011161</t>
+  </si>
+  <si>
+    <t>1011156</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4032b3a9-007a-4ae1-b42d-e33912cfca5a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e52e0d69-554e-421a-a636-94611a69a8df.jpg</t>
+  </si>
+  <si>
+    <t>1015424</t>
+  </si>
+  <si>
+    <t>1015447</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/736d77c5-2a4b-40c7-a5ef-cdeb91757a13.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1d522ff3-5dc3-4cc0-9498-3d577260c19b.jpg</t>
+  </si>
+  <si>
+    <t>1015453</t>
+  </si>
+  <si>
+    <t>1015431</t>
+  </si>
+  <si>
+    <t>1015430</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f885aa85-1106-4a84-9cc4-aa9716d68474.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/16e2e46a-6133-4fab-9ed5-329f5cb339b8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1fae7491-1f98-4475-af52-3eccc59b7903.jpg</t>
+  </si>
+  <si>
+    <t>1017461</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3618e085-c5fc-40ba-8422-814aaf1e0eca.jpg</t>
+  </si>
+  <si>
+    <t>1016453</t>
+  </si>
+  <si>
+    <t>1016481</t>
+  </si>
+  <si>
+    <t>1017739</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/8189bde4-5c71-4f9c-8372-cbb21318bda8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/98b377d6-ae59-43dd-b3b1-171b3afd8cae.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7550a6e1-3fbb-44a9-8152-02879076264d.jpg</t>
+  </si>
+  <si>
+    <t>1016310</t>
+  </si>
+  <si>
+    <t>1017464</t>
+  </si>
+  <si>
+    <t>1017729</t>
+  </si>
+  <si>
+    <t>1016996</t>
+  </si>
+  <si>
+    <t>1017731</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/9efe377e-300c-4e81-8cf5-47fef589e73d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a2e68e71-ddac-405e-ba2c-da6cd80488c8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3faafc57-09dd-49bb-896c-609755f89090.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e234f840-6fb3-4533-8c9b-1dca42fab07a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7580ab84-1b5c-48ba-b52f-0c011bf83a0a.jpg</t>
+  </si>
+  <si>
+    <t>1016998</t>
+  </si>
+  <si>
+    <t>1017001</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/34f6fa61-fbf8-46ee-b25c-4f7e0e786caa.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/80ab8456-51ad-42e0-8896-16568cfcae7b.jpg</t>
+  </si>
+  <si>
+    <t>1017003</t>
+  </si>
+  <si>
+    <t>1017730</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cd02fb4d-f92f-44d7-bd5b-5c4049843688.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2ab44e1d-5432-4e9c-b2da-f0ea442745ca.jpg</t>
+  </si>
+  <si>
+    <t>1017728</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/caa7d2cf-e4c7-42f2-9144-8720867a5987.jpg</t>
+  </si>
+  <si>
+    <t>1016881</t>
+  </si>
+  <si>
+    <t>1016882</t>
+  </si>
+  <si>
+    <t>1017443</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c5004e02-44fc-4c49-80c1-8c6a86df8f45.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/eb93eb23-243d-4daa-a837-a57720316771.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cb6b1cb7-27eb-4148-a678-08cdad2321f1.jpg</t>
+  </si>
+  <si>
+    <t>1017442</t>
+  </si>
+  <si>
+    <t>1016885</t>
+  </si>
+  <si>
+    <t>1016452</t>
+  </si>
+  <si>
+    <t>1017687</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b1ead690-820d-4949-906b-182262f94edb.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a5c0afa7-3587-4f63-a24d-16b14a5c4ecb.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3f4130bf-ada8-4716-a78f-b2590515776c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3fc77bab-9f4c-4ba9-9caf-13192f9a613d.jpg</t>
+  </si>
+  <si>
+    <t>1016893</t>
+  </si>
+  <si>
+    <t>1016456</t>
+  </si>
+  <si>
+    <t>1016999</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/44562afa-4098-46a9-8ce5-39577a1e922b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1b33e454-5711-4815-8e24-1d5b4af77729.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7c230feb-2854-4670-acfb-8d278cea2b6a.jpg</t>
+  </si>
+  <si>
+    <t>1016459</t>
+  </si>
+  <si>
+    <t>1016314</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f70458ff-c611-4fed-a1e7-ae13212356aa.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/5508c116-0caa-43a7-969e-8ba7c7d2c144.jpg</t>
+  </si>
+  <si>
+    <t>1017449</t>
+  </si>
+  <si>
+    <t>1016325</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/0cdf37d5-bf60-4f65-8b9a-1e0975cc37ad.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e382834b-769f-44c5-a006-71a7f7240612.jpg</t>
+  </si>
+  <si>
+    <t>1017448</t>
+  </si>
+  <si>
+    <t>1016894</t>
+  </si>
+  <si>
+    <t>1016458</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/95c8995b-6cfe-492d-bfac-d8a427813dc3.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d8a93105-d24b-4d38-95c8-1dbedd9ed70c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/8df45cfa-6ba7-4e7b-8755-45d5e56d121d.jpg</t>
+  </si>
+  <si>
+    <t>1016462</t>
+  </si>
+  <si>
+    <t>1016461</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/972bd6ba-767b-4b1a-a8b8-739abb5a69a2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4bfc4676-7c54-482c-bfc4-ead122b52686.jpg</t>
+  </si>
+  <si>
+    <t>1017014</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4ac883c3-2b39-4858-a357-a5644cc1d51b.jpg</t>
+  </si>
+  <si>
+    <t>1017741</t>
+  </si>
+  <si>
+    <t>1017013</t>
+  </si>
+  <si>
+    <t>1016305</t>
+  </si>
+  <si>
+    <t>1017015</t>
+  </si>
+  <si>
+    <t>1017740</t>
+  </si>
+  <si>
+    <t>1017636</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/8ddb0a23-6ce1-4666-a2ac-dd5d5aaf0ef2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/dd3c8489-70dd-4661-9983-7324dbcff946.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6bd29629-6545-4424-93d5-de9ecae5c55d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f83b0762-cc80-4654-abbf-6943fcdb39d2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a8bbc8de-9140-4a18-becf-d377dcef1a39.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/19f4fec2-1dad-4417-ada5-d7e9a9244a33.jpg</t>
+  </si>
+  <si>
+    <t>1017672</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d02f46be-2a03-4add-a620-4285629941bc.jpg</t>
+  </si>
+  <si>
+    <t>1017746</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1e2af1c5-ac5b-4132-a029-af1b9f8c3cad.jpg</t>
+  </si>
+  <si>
+    <t>1017009</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/daea7cb1-8ba6-42c5-b80c-9030dd9035eb.jpg</t>
+  </si>
+  <si>
+    <t>1017745</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/715755ad-c65e-4e0b-b1e9-88f32e0ebaf8.jpg</t>
+  </si>
+  <si>
+    <t>1018973</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7e96bf8c-fb69-4c3e-b38d-92830309f9ad.jpg</t>
+  </si>
+  <si>
+    <t>1018952</t>
+  </si>
+  <si>
+    <t>1018716</t>
+  </si>
+  <si>
+    <t>1018633</t>
+  </si>
+  <si>
+    <t>1018972</t>
+  </si>
+  <si>
+    <t>1018975</t>
+  </si>
+  <si>
+    <t>1018976</t>
+  </si>
+  <si>
+    <t>1019144</t>
+  </si>
+  <si>
+    <t>1018974</t>
+  </si>
+  <si>
+    <t>1018750</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/357fb678-afb6-4c3a-a0e7-f22f28805ffa.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/42b5c8d9-5ac3-4d59-a2fa-eccf5cdea212.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/40c46462-0ec4-425b-9b46-8d353eae09d7.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b1cf9e1e-dbec-449e-beca-ae8db2e7da27.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7c876c12-1994-4bac-8040-311df188d38a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/54febb24-b119-4e4a-8b3a-61de4ddf27e0.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/611b4d24-9e49-4b5c-a5cb-1ea527e0ec30.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ef5efb24-d0eb-4c01-b47f-bb7d2338a19a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d3e4360d-ae3f-469c-8295-cb5fe2761e36.jpg</t>
+  </si>
+  <si>
+    <t>1019458</t>
+  </si>
+  <si>
+    <t>1018892</t>
+  </si>
+  <si>
+    <t>1019464</t>
+  </si>
+  <si>
+    <t>1018893</t>
+  </si>
+  <si>
+    <t>1018899</t>
+  </si>
+  <si>
+    <t>1019461</t>
+  </si>
+  <si>
+    <t>1019472</t>
+  </si>
+  <si>
+    <t>1018648</t>
+  </si>
+  <si>
+    <t>1019221</t>
+  </si>
+  <si>
+    <t>1018999</t>
+  </si>
+  <si>
+    <t>1019004</t>
+  </si>
+  <si>
+    <t>1019003</t>
+  </si>
+  <si>
+    <t>1018719</t>
+  </si>
+  <si>
+    <t>1018756</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bb1cab5a-296b-4893-a091-3d0dc8615c3a.jpeg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/14470a02-df7d-49bc-b03b-54729df0284b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a5ddc7f8-e922-4ee7-b15f-c4f624a1287b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/72f0cfb0-d8c5-4b2e-a1d6-317cb3c9c00c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/454262bb-d8a0-4f87-8b1d-1f544c205c3e.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f2f2e851-c715-451d-a028-8af6b48d5674.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c312f800-5cd2-43cb-802b-dff836386aa2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/098ffeba-c182-43b4-aa3b-0f707ef96419.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/58084504-df72-4925-819f-dcebc0ebab5c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/90b1ab56-6f9c-4561-a3af-ab9e2d8d7beb.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3960487c-01b9-49af-9183-1a561d828ffd.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/316ee4b1-b058-408a-933c-a4e509ee6d3d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ddececf3-07b9-48ba-b7e9-ac3d06ab2fb1.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/da8b4bad-b830-40b5-a1d7-55e565b86e78.jpg</t>
+  </si>
+  <si>
+    <t>1018616</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2b76c8bc-9784-464c-800e-f88d35802ae0.jpg</t>
+  </si>
+  <si>
+    <t>1018718</t>
+  </si>
+  <si>
+    <t>1018977</t>
+  </si>
+  <si>
+    <t>1018727</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c89fd2b8-b917-40eb-9885-25ceb0f10969.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e245331d-5b7b-4718-9cb2-7ec4c2569ff5.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/846026c1-3244-4cac-856e-c06e33efb33a.jpg</t>
+  </si>
+  <si>
+    <t>1019153</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6a54e340-20d1-4245-905e-47b228261040.jpg</t>
+  </si>
+  <si>
+    <t>1018950</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/87b8a346-e915-420e-b0c1-5c4c14d19436.jpg</t>
+  </si>
+  <si>
+    <t>1018954</t>
+  </si>
+  <si>
+    <t>1018367</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6975b610-b03e-4d96-ad81-91184e550aa9.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4b8fe503-05bb-4901-92ba-58e2bcd8140d.jpg</t>
+  </si>
+  <si>
+    <t>1018731</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4ba3b256-6cbd-4947-ac5e-35306529cbd9.jpg</t>
+  </si>
+  <si>
+    <t>1018615</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/9996396b-945d-4570-b211-eccb8c540357.jpg</t>
+  </si>
+  <si>
+    <t>1018951</t>
+  </si>
+  <si>
+    <t>1018959</t>
+  </si>
+  <si>
+    <t>1018363</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b2385966-ad37-46f3-8fe4-dd33d70f7a7c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4651171e-64e1-4c95-983a-7ebea66db262.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a2f0aba5-f7f6-4824-97ba-2d8e49b3bbad.jpg</t>
+  </si>
+  <si>
+    <t>1018958</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/5665bc61-afa4-4e46-b77f-0713fa49e637.jpg</t>
+  </si>
+  <si>
+    <t>1019164</t>
+  </si>
+  <si>
+    <t>1018953</t>
+  </si>
+  <si>
+    <t>1018751</t>
+  </si>
+  <si>
+    <t>1018730</t>
+  </si>
+  <si>
+    <t>1018948</t>
+  </si>
+  <si>
+    <t>1019162</t>
+  </si>
+  <si>
+    <t>1018726</t>
+  </si>
+  <si>
+    <t>1019158</t>
+  </si>
+  <si>
+    <t>1018732</t>
+  </si>
+  <si>
+    <t>1018949</t>
+  </si>
+  <si>
+    <t>1018753</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/10b99d19-0654-41a8-ac80-19d5114f007c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/af11ad22-de16-448d-939d-4876d857c14e.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3585b43e-5f0c-40a7-9af6-c9e8fe9fb22d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a03e8a95-2e0d-4045-9619-20fdfe37f310.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/291f4678-7a80-4f0b-9ae8-980a9783d7e6.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/db0deaec-6e87-44f8-8fa0-4ec80c563964.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ee211733-9e6c-4727-a06d-63b84d4b9a87.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a3f2182d-baf3-4343-a973-35c56230a2f1.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d8ec9e40-7ac8-49b6-aae5-88e0c86f8d0d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b1a28f37-3a42-493d-a900-7570eefc7a9d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6fc799cc-c588-43ef-adff-b231b0f2754f.jpg</t>
+  </si>
+  <si>
+    <t>1018960</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/5296d9ba-5e33-4f57-b2af-95b865619ab2.jpg</t>
+  </si>
+  <si>
+    <t>1018362</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/be6588f9-5a9c-406e-99cf-e62950fd240d.jpg</t>
+  </si>
+  <si>
+    <t>1018955</t>
+  </si>
+  <si>
+    <t>1018364</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3a83eb7a-e2db-4407-9668-3e59ab340b8a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a401c948-2cf6-48e7-9a17-c1dbadc6f2dd.jpg</t>
+  </si>
+  <si>
+    <t>1018635</t>
+  </si>
+  <si>
+    <t>1019147</t>
+  </si>
+  <si>
+    <t>1018634</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1bb6cd49-0b94-457d-bb99-f83cea9c9b15.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f8c09281-ca2b-429b-b36a-ff46e2f30fb5.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4865dea2-98a5-46fa-a4f8-e6e9880dd396.jpg</t>
+  </si>
+  <si>
+    <t>1019143</t>
+  </si>
+  <si>
+    <t>1019148</t>
+  </si>
+  <si>
+    <t>1018898</t>
+  </si>
+  <si>
+    <t>1019109</t>
+  </si>
+  <si>
+    <t>1018895</t>
+  </si>
+  <si>
+    <t>1018640</t>
+  </si>
+  <si>
+    <t>1018890</t>
+  </si>
+  <si>
+    <t>1019469</t>
+  </si>
+  <si>
+    <t>1019108</t>
+  </si>
+  <si>
+    <t>1019460</t>
+  </si>
+  <si>
+    <t>1018287</t>
+  </si>
+  <si>
+    <t>1019303</t>
+  </si>
+  <si>
+    <t>1018639</t>
+  </si>
+  <si>
+    <t>1018901</t>
+  </si>
+  <si>
+    <t>1018299</t>
+  </si>
+  <si>
+    <t>1019462</t>
+  </si>
+  <si>
+    <t>1019468</t>
+  </si>
+  <si>
+    <t>1017826</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6a95e586-58f4-48e7-a511-14f43fa2861d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/02b6849d-e613-478d-bd1a-2649a38b02dd.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1d926a80-3d64-4123-9ff4-c9c6fb01894c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/17acbae5-f019-4eb1-a6e3-75abaee9f474.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/73bc4e71-8ed1-41c1-a9ae-aa56b1fe2438.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d0a6a0d4-61a7-4ee5-8d4d-a73573c912da.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4370dc70-f71a-4bfc-bbde-97e9745471cb.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/100b61c9-decc-4b4a-aed4-dbb06366dfd1.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c30558a1-7451-4667-a6e4-7fe30259b700.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/dbcb2868-d30d-4600-9c8e-31846b828fab.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/fbc56af9-e1ba-4ca6-8164-ebb47993ac0b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/95b5a0ce-c0a5-41c5-bad1-c75c7c9655d9.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4234aac0-49e9-4d1e-8069-ac252b9dcfd8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3bac5654-c233-4309-91ff-d87274663b46.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d261d40d-3568-4ff7-99d1-22a66fac2145.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3339b55f-eaee-44d2-853f-02a50b4c8811.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/deda1e99-8362-4991-af6e-6bd0e1f9d786.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2959b4ec-3b1c-45ed-abf2-217aee154bb8.jpg</t>
+  </si>
+  <si>
+    <t>1017820</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/357015d7-14ef-4a2d-878a-4db4c5d8db07.jpg</t>
+  </si>
+  <si>
+    <t>1019915</t>
+  </si>
+  <si>
+    <t>1019917</t>
+  </si>
+  <si>
+    <t>1020286</t>
+  </si>
+  <si>
+    <t>1020279</t>
+  </si>
+  <si>
+    <t>1019903</t>
+  </si>
+  <si>
+    <t>1019926</t>
+  </si>
+  <si>
+    <t>1020280</t>
+  </si>
+  <si>
+    <t>1019902</t>
+  </si>
+  <si>
+    <t>1020285</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/dde6079b-bb7a-4810-9e5c-f46f605f5f34.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/100d072f-28aa-4bb4-aea6-a943ab4cef10.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/929c3af7-3d2c-4c16-9fe7-ff954f4138d2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2b17056d-4b4b-4e54-b7f3-cea695ab71d6.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/9d9c0727-7d06-4c13-a113-205e163ccf75.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f7681f31-ab1e-45ef-b20d-95b9b01b365b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/23b0d515-cf6f-4780-b3dc-e3fd51863100.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/91c366dc-26a1-4c87-b332-4b46c5438d63.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/050b3791-3d55-46e5-b987-c6a233fb7655.jpg</t>
+  </si>
+  <si>
+    <t>1020307</t>
+  </si>
+  <si>
+    <t>1019912</t>
+  </si>
+  <si>
+    <t>1019920</t>
+  </si>
+  <si>
+    <t>1019919</t>
+  </si>
+  <si>
+    <t>1019927</t>
+  </si>
+  <si>
+    <t>1020025</t>
+  </si>
+  <si>
+    <t>1020024</t>
+  </si>
+  <si>
+    <t>1019921</t>
+  </si>
+  <si>
+    <t>1019925</t>
+  </si>
+  <si>
+    <t>1020023</t>
+  </si>
+  <si>
+    <t>1020017</t>
+  </si>
+  <si>
+    <t>1020283</t>
+  </si>
+  <si>
+    <t>1019924</t>
+  </si>
+  <si>
+    <t>1019906</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6afd931f-1c75-4021-b6ca-011da861bcc9.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d41f01cf-c670-4f3b-8215-101756fdff72.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/93f50fe5-ed65-43ed-966e-df64b9c3f105.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/64ea8c49-de70-48f9-8098-bdf5d15736a8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cdc9b4bf-3f5d-4632-b003-42806e8321b5.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c9b38799-b813-4d71-bc49-5472155f553c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/982210e3-fbc2-47a8-b117-825b92b9b05e.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/58f4ef90-f42a-4fa7-9fe9-8a61a440fdac.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d0d54056-e8dd-475b-a546-1afeafbb36f8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/08581f53-7efa-4dcf-9cda-eef4b71abee8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/47e3d3ec-9448-42c7-816a-a4efcc25e395.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/91bd4aaa-1581-485e-a9cd-63b873302cb3.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c4ec5ba5-a611-45bd-b7f9-fcf3c7a85b31.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/34e38573-e475-4f24-8db7-6c59148f6a66.jpg</t>
+  </si>
+  <si>
+    <t>1020027</t>
+  </si>
+  <si>
+    <t>1020021</t>
+  </si>
+  <si>
+    <t>1019963</t>
+  </si>
+  <si>
+    <t>1019922</t>
+  </si>
+  <si>
+    <t>1020291</t>
+  </si>
+  <si>
+    <t>1020018</t>
+  </si>
+  <si>
+    <t>1019986</t>
+  </si>
+  <si>
+    <t>1019961</t>
+  </si>
+  <si>
+    <t>1019992</t>
+  </si>
+  <si>
+    <t>1020596</t>
+  </si>
+  <si>
+    <t>1019960</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1116ea10-e0b1-4007-aa65-f4e411cfff43.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/57939e3c-5ccc-40ef-bf6b-c0ef79e1d5a8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a591c58b-a7aa-4893-a5a4-47edbf36232c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/61011497-f78a-4554-9dd4-6aac9a452330.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/26c05f9f-8a24-4053-a817-2894f3312387.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bc06333b-9785-4f95-92b8-5b4f20d8578e.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e37ec3f1-622f-4f9b-88f3-31968c26512d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d7fe14ec-6141-4909-8d60-f24fe1b1c790.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/43a5dd0f-3207-49f8-9eb1-e974d8bc86b0.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/8dcbeabe-e62a-4f62-98bf-caebde9f2075.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f8a0f751-3daa-496c-b3ac-d9df1296f395.jpg</t>
+  </si>
+  <si>
+    <t>1019988</t>
+  </si>
+  <si>
+    <t>1020588</t>
+  </si>
+  <si>
+    <t>1019984</t>
+  </si>
+  <si>
+    <t>1019956</t>
+  </si>
+  <si>
+    <t>1020608</t>
+  </si>
+  <si>
+    <t>1019987</t>
+  </si>
+  <si>
+    <t>1019955</t>
+  </si>
+  <si>
+    <t>1019954</t>
+  </si>
+  <si>
+    <t>1019944</t>
+  </si>
+  <si>
+    <t>1019991</t>
+  </si>
+  <si>
+    <t>1019951</t>
+  </si>
+  <si>
+    <t>1020610</t>
+  </si>
+  <si>
+    <t>1019989</t>
+  </si>
+  <si>
+    <t>1020601</t>
+  </si>
+  <si>
+    <t>1019990</t>
+  </si>
+  <si>
+    <t>1019953</t>
+  </si>
+  <si>
+    <t>1020592</t>
+  </si>
+  <si>
+    <t>1019962</t>
+  </si>
+  <si>
+    <t>1020299</t>
+  </si>
+  <si>
+    <t>1020298</t>
+  </si>
+  <si>
+    <t>1019948</t>
+  </si>
+  <si>
+    <t>1020599</t>
+  </si>
+  <si>
+    <t>1019941</t>
+  </si>
+  <si>
+    <t>1020595</t>
+  </si>
+  <si>
+    <t>1019959</t>
+  </si>
+  <si>
+    <t>1020606</t>
+  </si>
+  <si>
+    <t>1020607</t>
+  </si>
+  <si>
+    <t>1020297</t>
+  </si>
+  <si>
+    <t>1019938</t>
+  </si>
+  <si>
+    <t>1020600</t>
+  </si>
+  <si>
+    <t>1020598</t>
+  </si>
+  <si>
+    <t>1019939</t>
+  </si>
+  <si>
+    <t>1019945</t>
+  </si>
+  <si>
+    <t>1019681</t>
+  </si>
+  <si>
+    <t>1020156</t>
+  </si>
+  <si>
+    <t>1020468</t>
+  </si>
+  <si>
+    <t>1020152</t>
+  </si>
+  <si>
+    <t>1020186</t>
+  </si>
+  <si>
+    <t>1019930</t>
+  </si>
+  <si>
+    <t>1020585</t>
+  </si>
+  <si>
+    <t>1020575</t>
+  </si>
+  <si>
+    <t>1019687</t>
+  </si>
+  <si>
+    <t>1019685</t>
+  </si>
+  <si>
+    <t>1020172</t>
+  </si>
+  <si>
+    <t>1020205</t>
+  </si>
+  <si>
+    <t>1020578</t>
+  </si>
+  <si>
+    <t>1019934</t>
+  </si>
+  <si>
+    <t>1020463</t>
+  </si>
+  <si>
+    <t>1020586</t>
+  </si>
+  <si>
+    <t>1020141</t>
+  </si>
+  <si>
+    <t>1020155</t>
+  </si>
+  <si>
+    <t>1020204</t>
+  </si>
+  <si>
+    <t>1020576</t>
+  </si>
+  <si>
+    <t>1020196</t>
+  </si>
+  <si>
+    <t>1019929</t>
+  </si>
+  <si>
+    <t>1020485</t>
+  </si>
+  <si>
+    <t>1020464</t>
+  </si>
+  <si>
+    <t>1020169</t>
+  </si>
+  <si>
+    <t>1019932</t>
+  </si>
+  <si>
+    <t>1020181</t>
+  </si>
+  <si>
+    <t>1019940</t>
+  </si>
+  <si>
+    <t>1020115</t>
+  </si>
+  <si>
+    <t>1020582</t>
+  </si>
+  <si>
+    <t>1020467</t>
+  </si>
+  <si>
+    <t>1020170</t>
+  </si>
+  <si>
+    <t>1020584</t>
+  </si>
+  <si>
+    <t>1020583</t>
+  </si>
+  <si>
+    <t>1020199</t>
+  </si>
+  <si>
+    <t>1020191</t>
+  </si>
+  <si>
+    <t>1019684</t>
+  </si>
+  <si>
+    <t>1020179</t>
+  </si>
+  <si>
+    <t>1020192</t>
+  </si>
+  <si>
+    <t>1019931</t>
+  </si>
+  <si>
+    <t>1020176</t>
+  </si>
+  <si>
+    <t>1020160</t>
+  </si>
+  <si>
+    <t>1020153</t>
+  </si>
+  <si>
+    <t>1020287</t>
+  </si>
+  <si>
+    <t>1020281</t>
+  </si>
+  <si>
+    <t>1020617</t>
+  </si>
+  <si>
+    <t>1020282</t>
+  </si>
+  <si>
+    <t>1020614</t>
+  </si>
+  <si>
+    <t>1020589</t>
+  </si>
+  <si>
+    <t>1020151</t>
+  </si>
+  <si>
+    <t>1020164</t>
+  </si>
+  <si>
+    <t>1019946</t>
+  </si>
+  <si>
+    <t>1020208</t>
+  </si>
+  <si>
+    <t>1020613</t>
+  </si>
+  <si>
+    <t>1019985</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/20b9db0e-f1c0-42b5-8cf4-05b6e52f0bc6.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/fae04661-5d76-48a6-bfe8-c78eb7f19ba6.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c8de6d14-b14d-4349-a49c-5fea9f923126.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/373e8b9d-3ca8-4e1a-b815-5645580ba930.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a189e9ef-fa43-48b1-b882-8826e4ffded7.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1400197f-d016-4c8a-ae05-f27f59b815c5.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1ca9d83b-7e7d-4b65-b30e-fef74a6a38f7.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/536f179a-9549-4852-b6e4-35b0abd805c4.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cb36ac58-4985-49ab-8ab9-15912238ecf9.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c9a42e44-816b-4631-a023-18a7346b04e0.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/daa5e148-3fb4-4096-88ac-148811bf8ff8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6f699fa7-21b4-4972-a6e2-a34ddf976edb.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1e2c7d96-92ac-4df6-bbad-dc517e445902.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6ba4284e-354e-4fee-ad7b-2d306188da91.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3fa18be0-afe2-4140-9d5e-3ecebd902e09.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6416119d-739d-4808-9328-a2bb7ac79049.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2636bde8-daad-4235-b625-f9666cb1605b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/0ee80849-6532-42a1-b1f6-69408a0f02fd.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/fd21827b-24e3-489f-9979-5a374cce8784.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b865ff51-fc4c-409f-b3c6-726066ba47fd.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/17aa85a9-15f9-4287-9e1e-6038cfdee0c2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/98bcec25-cbe0-4b2e-909d-11da986fcd95.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/fae4e085-7984-4676-becb-ef7cb34fd660.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c1e5e56d-804a-4d7d-a90e-256c5f782b1d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4633f780-4aa3-498a-ab19-925da314c931.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cf9c1cff-c00a-4b04-b2c7-685d55639fff.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e230ac4c-30b9-458f-ada7-1c4f0405e8db.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/672ffabb-3071-42d8-b15d-a2b55f8fd38c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bec4bab3-875d-446c-b87f-8fa55d782f2c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3c938f83-86e3-457f-8e71-729260716911.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/229f4371-83a3-40a9-af45-6ee8859e35ab.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/57bd630c-7e92-4be6-9a94-8021674ddadf.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7f1ac4ad-8b0e-4f1c-8b78-05a1666e0b93.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/451cf41f-2eed-4ae2-8e8a-b437d7669da4.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1df0ee44-ab05-4584-b890-a355ed847f4d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2a9c4d1a-a4f8-4ae4-b54c-4e817ff4f840.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e1695dd1-df71-46a2-8412-d7f3d54dfcd3.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a86e37d2-8f3e-4b50-b69e-badec1f5bfad.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/daf6bf74-b032-48d8-9e7b-14172ba27272.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/00635c75-f634-4c7a-bc5a-77760adb4e64.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e811d494-5364-42c5-a9f5-2cc3e5349d07.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ebbfcaef-d43c-4880-b310-4469a277edc9.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/01849d51-1521-4c04-b35a-5c1aa317ee91.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/766703a4-d07c-4213-9db8-4456c788bbd2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/fa206fa4-c47c-44ef-a89d-13ab70f8c5a7.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/98cbc52c-2b1d-4a4c-ae4d-2e5cfe2663d1.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/98fa8d96-d20a-4aee-bbd9-45a782d5ce42.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f7ceb378-b5db-4675-8741-01714e2b17d4.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/96252726-4fee-42e5-9b66-319e9f54e9f1.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/0dac5a53-a7bf-4714-8a86-b5cd8dc19c7f.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/815419c4-1cc5-4391-8f99-cb99de8cc0f6.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/eb55e10d-277a-47b5-9e59-4530f89da11f.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a9fb4ef1-18cf-427f-a1b3-a97c3763aa54.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bd3e47ed-9ad0-47cb-88b1-8f3e76c085ce.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/8cffc7fa-86cd-447f-a22c-365fa2bbb74a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/12a01bdf-5972-4c24-a8ab-4bfef0c4392d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bd8ca848-f3d8-4ec1-a621-6dae1bcb265c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1914870d-60aa-4186-93c5-8dee76603d24.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/390c2de0-5d9a-422e-bdae-4f6cde0fd1ac.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/74926092-639e-40cd-ba4c-6db616917ac0.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/773599a7-809d-442e-89a3-a54a3701b298.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/9bd2e192-3bd0-462f-a434-5b73b33edf4c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2b9e19fa-fed7-4289-a999-e6d35952f619.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e91b32a8-c5fd-40d8-884a-30dcc4415d62.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/323b352a-8d25-488e-b868-0ced742cea7d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/09a8696b-e145-454a-b6ec-59f405f1eaa0.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a4d9316d-9b6d-492a-b3e8-15e04dbf2158.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b6c870fe-1c76-49b3-b281-5f98e8bd4216.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/37a02f35-305f-4cdd-ba32-36d65a5a611f.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/f459cf86-de04-41fb-8c4c-a7f9d002bf69.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/50608517-d334-4c4e-83d5-d35cd19fcea2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/9cdb4d21-a447-40e2-8191-3ea2b7a8aff2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/efd5e772-9b48-4d42-a020-746475f2121d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bd5f2efa-ea17-49fa-94c7-97277c1e9bad.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/698fa41a-8e2e-42c0-a395-e4b689c432f0.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2f2b2ad8-65c3-404f-976b-d516434d2690.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/8e78304f-65db-47a5-92d2-e99c28c6544f.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/caf78954-70c6-4f18-a7c4-74cae6f35907.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/2f562b34-2633-4b55-926b-2ccd2dd3316e.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/5b5eda1d-c2bb-47a7-bd91-a13a6deb1f53.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e9cbd430-5169-4932-b281-ea75d79a443c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c55dcded-ee8e-4df3-a1dc-4beb2b3c0dd5.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/71736806-2bb8-4750-baf3-958d6b50986a.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cce5e4ee-0302-4fd9-905d-c9ef24322f27.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e3e8708a-3df8-4c07-8323-e15fc16d438c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/21b0a542-4938-4fd1-b2e7-9d9420760a6b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1f56b624-6a35-4063-a171-9297d320873d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c36e0a42-0955-41f7-89b5-667df5ca987e.jpg</t>
+  </si>
+  <si>
+    <t>1020594</t>
+  </si>
+  <si>
+    <t>1020590</t>
+  </si>
+  <si>
+    <t>1019933</t>
+  </si>
+  <si>
+    <t>1020581</t>
+  </si>
+  <si>
+    <t>1020174</t>
+  </si>
+  <si>
+    <t>1020573</t>
+  </si>
+  <si>
+    <t>1020188</t>
+  </si>
+  <si>
+    <t>1020602</t>
+  </si>
+  <si>
+    <t>1020190</t>
+  </si>
+  <si>
+    <t>1020612</t>
+  </si>
+  <si>
+    <t>1020603</t>
+  </si>
+  <si>
+    <t>1020597</t>
+  </si>
+  <si>
+    <t>1020615</t>
+  </si>
+  <si>
+    <t>1020579</t>
+  </si>
+  <si>
+    <t>1020175</t>
+  </si>
+  <si>
+    <t>1019952</t>
+  </si>
+  <si>
+    <t>1020207</t>
+  </si>
+  <si>
+    <t>1020619</t>
+  </si>
+  <si>
+    <t>1020171</t>
+  </si>
+  <si>
+    <t>1019947</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/859662a9-4e36-4b2e-941d-f48992256938.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4588cbc9-ecbf-4c99-9e3e-5f41dfe3ad8c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4434789b-6814-44e7-81ec-d438d2dd6547.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/17894a4f-70fc-4c84-ae25-d78bb20b11d2.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/284583d1-649b-4bc6-8cb2-ced9264bb31e.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bfbbdee7-a68f-4107-b2f8-912e675befd6.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d5782e13-c7a9-4b2d-a8d1-b41286e90684.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d083f79f-060b-4293-b556-590dd6fb2051.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/32374292-7a17-44a1-9d73-b5fff92d033f.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b43bb3c2-ca4b-465e-b366-042a9d42eabd.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/fa8535be-c901-4781-b215-e930f08eb09d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7097aea4-8510-4849-b387-25f5cc15b04e.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/85cdf194-5308-4848-b851-7e5ecbebb718.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/5532c4e4-14c6-4a23-9e66-ec1301249e5d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/9b54063b-466d-4801-b08b-3f9425766232.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/90348f3c-ed67-4c3a-b2dd-4c02e7a5cb0c.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/eb405f8e-d2c7-4f32-84d5-b7df02146526.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/83fe8cb1-3c50-4f3d-b0da-80e113aa6b17.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3228ef38-bd8f-406e-918b-3d88a5e2dc95.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ab26da51-aa1e-4c65-b686-95c207c6dc07.jpg</t>
+  </si>
+  <si>
+    <t>1020184</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6b2e9137-4ac1-49b2-9e71-b6d7f7c88837.jpg</t>
+  </si>
+  <si>
+    <t>1020185</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6ba3281d-09f8-4ca3-8360-202ed8ac2f26.jpg</t>
+  </si>
+  <si>
+    <t>1019928</t>
+  </si>
+  <si>
+    <t>1019949</t>
+  </si>
+  <si>
+    <t>1021150</t>
+  </si>
+  <si>
+    <t>1021287</t>
+  </si>
+  <si>
+    <t>1021141</t>
+  </si>
+  <si>
+    <t>1021112</t>
+  </si>
+  <si>
+    <t>1021127</t>
+  </si>
+  <si>
+    <t>1021145</t>
+  </si>
+  <si>
+    <t>1021139</t>
+  </si>
+  <si>
+    <t>1021129</t>
+  </si>
+  <si>
+    <t>1021114</t>
+  </si>
+  <si>
+    <t>1021121</t>
+  </si>
+  <si>
+    <t>1021143</t>
+  </si>
+  <si>
+    <t>1021138</t>
+  </si>
+  <si>
+    <t>1021109</t>
+  </si>
+  <si>
+    <t>1021096</t>
+  </si>
+  <si>
+    <t>1021101</t>
+  </si>
+  <si>
+    <t>1021148</t>
+  </si>
+  <si>
+    <t>1021102</t>
+  </si>
+  <si>
+    <t>1021117</t>
+  </si>
+  <si>
+    <t>1021105</t>
+  </si>
+  <si>
+    <t>1021110</t>
+  </si>
+  <si>
+    <t>1021103</t>
+  </si>
+  <si>
+    <t>1021108</t>
+  </si>
+  <si>
+    <t>1021137</t>
+  </si>
+  <si>
+    <t>1021125</t>
+  </si>
+  <si>
+    <t>1021115</t>
+  </si>
+  <si>
+    <t>1021116</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/9bbe7377-373a-4192-8698-8e199a1ded7b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/df373ca5-0b84-4d72-be0a-d4fd46a84d00.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/61e4fcc9-f399-4cce-a6ca-1b753ce44b6f.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/babdc95e-10f7-4535-87c9-799cefdf4359.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/1b5d5a30-21d4-48ec-9778-fab8e78f2dca.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a4b31cb0-d84c-475c-a065-a24a49e84ac8.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/e1f88407-ebf7-4da6-9adb-84afe665e300.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6fc9ab3d-3d4d-4e1f-8503-dfc5bea26d07.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c4276642-db43-4cd6-9359-f1497b1a6d08.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/685132c2-6db2-47ff-9e7a-4ee39db7d750.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a53bc4da-5c36-48c1-9a3f-e2711a5dad66.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/dd24f140-57e7-4b90-8cdd-e7fd421a07c0.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6d9ed259-8d9a-4a12-910b-e00abd60d084.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4f828525-4300-491a-8f49-c22c71ef0778.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/fc0e9588-b01d-4cde-9cdc-7144966d7000.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/c1ac70e6-89b3-4452-8ed4-d95c7c62d954.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/16a38d52-e6b3-41df-8608-600c30c4e001.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/417080d4-bf02-4c5c-a29a-3622b4184e21.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/829e751a-4d5a-45f1-acfb-29fa6e9d1dcf.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/545a60ea-0794-4f24-85f1-7c03e23a2b34.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/8a60fd7b-7b5d-44a4-839b-44676caac89b.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ccb11e28-e3c3-433e-ab09-7828a0609ee7.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/b12721c1-588c-4453-b406-34c347c2ac42.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bce43cc9-5f90-4fdd-8f8b-c5493afb3ee7.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/bc94be75-3072-43c0-b47d-c06f2f527213.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7f9c6db4-dcc9-4e53-94bf-8431cef68a8d.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/37674b67-861e-4c57-8bd8-a1814c940189.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/04c15cdb-911b-40f9-b824-0e92fef659e3.jpg</t>
+  </si>
+  <si>
+    <t>1014599</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/44a61bbe-339b-4bb7-b342-954ebfb6a68c.jpg</t>
+  </si>
+  <si>
+    <t>1018904</t>
+  </si>
+  <si>
+    <t>1018286</t>
+  </si>
+  <si>
+    <t>1020482</t>
+  </si>
+  <si>
+    <t>1018907</t>
+  </si>
+  <si>
+    <t>1018902</t>
+  </si>
+  <si>
+    <t>1019101</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/cf1aab78-4d6d-423d-9acf-7d983e541cd3.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/d475cb81-7ad9-4b89-a112-dabaa9c69dab.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/3a2065c5-d716-41bd-aa63-097f8fd60052.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7b836e02-dd2e-40da-9912-c129f45f078f.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/0acc78a8-49e6-4967-8eed-f8e8c7f2cbcc.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/17b1e173-a820-42c8-b9b2-e7f0a215c957.jpg</t>
+  </si>
+  <si>
+    <t>1018373</t>
+  </si>
+  <si>
+    <t>1019474</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/efa91626-e522-4f32-b6c6-c7b5a79e9766.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/0802272d-aa3c-4c80-9df2-9513e3a12ca4.jpg</t>
+  </si>
+  <si>
+    <t>1019459</t>
+  </si>
+  <si>
+    <t>1019475</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/9264e357-ebd7-4a78-adf8-27d22b2bfe11.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/76d8fe8e-fa3d-471c-825c-7c85a3364102.jpg</t>
+  </si>
+  <si>
+    <t>1019477</t>
+  </si>
+  <si>
+    <t>1019471</t>
+  </si>
+  <si>
+    <t>1018285</t>
+  </si>
+  <si>
+    <t>1019465</t>
+  </si>
+  <si>
+    <t>1019470</t>
+  </si>
+  <si>
+    <t>1018310</t>
+  </si>
+  <si>
+    <t>1018284</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/577079e0-ec63-4794-a6c3-42a1d1e3eb57.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/a7678cb6-2fec-4802-9566-846bc34d1da7.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/af1b4e26-1a88-4cb7-9eb5-a8b4a52d19bb.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/4ce704e1-215b-4ce7-9934-a62234ce4671.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/fc275d92-ed38-474c-9701-0b19cffc8711.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/7788d21d-1f7c-40e5-910d-f0c6bafd17f4.jpg</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/ea70418e-460e-4673-bd2d-e9d6db64ad03.jpg</t>
+  </si>
+  <si>
+    <t>1014709</t>
+  </si>
+  <si>
+    <t>https://d83g1ecahmg39.cloudfront.net/gallery/270935378/products/1500x1500/6907064d-5e59-4591-bb86-ff3590350e20.jpg</t>
   </si>
   <si>
     <t>1009847</t>
@@ -448,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,44 +2555,44 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -530,7 +2600,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -538,10 +2608,2770 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>245</v>
+      </c>
+      <c r="B128" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>278</v>
+      </c>
+      <c r="B143" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>279</v>
+      </c>
+      <c r="B144" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>281</v>
+      </c>
+      <c r="B146" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>282</v>
+      </c>
+      <c r="B147" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>283</v>
+      </c>
+      <c r="B148" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>285</v>
+      </c>
+      <c r="B150" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>286</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>287</v>
+      </c>
+      <c r="B152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>288</v>
+      </c>
+      <c r="B153" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>289</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>313</v>
+      </c>
+      <c r="B159" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>317</v>
+      </c>
+      <c r="B163" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>334</v>
+      </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>335</v>
+      </c>
+      <c r="B172" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>336</v>
+      </c>
+      <c r="B173" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>337</v>
+      </c>
+      <c r="B174" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>339</v>
+      </c>
+      <c r="B176" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>340</v>
+      </c>
+      <c r="B177" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>341</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>361</v>
+      </c>
+      <c r="B184" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>363</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>364</v>
+      </c>
+      <c r="B187" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>382</v>
+      </c>
+      <c r="B194" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>385</v>
+      </c>
+      <c r="B197" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>386</v>
+      </c>
+      <c r="B198" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>388</v>
+      </c>
+      <c r="B200" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B201" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>390</v>
+      </c>
+      <c r="B202" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>391</v>
+      </c>
+      <c r="B203" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>392</v>
+      </c>
+      <c r="B204" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>393</v>
+      </c>
+      <c r="B205" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>394</v>
+      </c>
+      <c r="B206" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>395</v>
+      </c>
+      <c r="B207" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>396</v>
+      </c>
+      <c r="B208" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>397</v>
+      </c>
+      <c r="B209" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>398</v>
+      </c>
+      <c r="B210" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>399</v>
+      </c>
+      <c r="B211" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>400</v>
+      </c>
+      <c r="B212" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>401</v>
+      </c>
+      <c r="B213" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>402</v>
+      </c>
+      <c r="B214" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>403</v>
+      </c>
+      <c r="B215" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>404</v>
+      </c>
+      <c r="B216" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>405</v>
+      </c>
+      <c r="B217" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>406</v>
+      </c>
+      <c r="B218" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>407</v>
+      </c>
+      <c r="B219" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>408</v>
+      </c>
+      <c r="B220" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>409</v>
+      </c>
+      <c r="B221" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>410</v>
+      </c>
+      <c r="B222" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>411</v>
+      </c>
+      <c r="B223" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>412</v>
+      </c>
+      <c r="B224" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>413</v>
+      </c>
+      <c r="B225" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>414</v>
+      </c>
+      <c r="B226" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>415</v>
+      </c>
+      <c r="B227" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>416</v>
+      </c>
+      <c r="B228" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>417</v>
+      </c>
+      <c r="B229" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>418</v>
+      </c>
+      <c r="B230" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>419</v>
+      </c>
+      <c r="B231" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>420</v>
+      </c>
+      <c r="B232" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>421</v>
+      </c>
+      <c r="B233" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>422</v>
+      </c>
+      <c r="B234" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>423</v>
+      </c>
+      <c r="B235" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>424</v>
+      </c>
+      <c r="B236" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>425</v>
+      </c>
+      <c r="B237" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>426</v>
+      </c>
+      <c r="B238" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>427</v>
+      </c>
+      <c r="B239" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>428</v>
+      </c>
+      <c r="B240" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>429</v>
+      </c>
+      <c r="B241" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>430</v>
+      </c>
+      <c r="B242" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>431</v>
+      </c>
+      <c r="B243" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>432</v>
+      </c>
+      <c r="B244" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>433</v>
+      </c>
+      <c r="B245" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>434</v>
+      </c>
+      <c r="B246" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>435</v>
+      </c>
+      <c r="B247" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>436</v>
+      </c>
+      <c r="B248" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>437</v>
+      </c>
+      <c r="B249" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>438</v>
+      </c>
+      <c r="B250" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>439</v>
+      </c>
+      <c r="B251" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>440</v>
+      </c>
+      <c r="B252" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>441</v>
+      </c>
+      <c r="B253" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>442</v>
+      </c>
+      <c r="B254" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>443</v>
+      </c>
+      <c r="B255" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>444</v>
+      </c>
+      <c r="B256" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>445</v>
+      </c>
+      <c r="B257" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>446</v>
+      </c>
+      <c r="B258" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>447</v>
+      </c>
+      <c r="B259" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>448</v>
+      </c>
+      <c r="B260" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>449</v>
+      </c>
+      <c r="B261" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>450</v>
+      </c>
+      <c r="B262" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>451</v>
+      </c>
+      <c r="B263" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>452</v>
+      </c>
+      <c r="B264" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>453</v>
+      </c>
+      <c r="B265" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>454</v>
+      </c>
+      <c r="B266" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>455</v>
+      </c>
+      <c r="B267" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>456</v>
+      </c>
+      <c r="B268" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>457</v>
+      </c>
+      <c r="B269" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>458</v>
+      </c>
+      <c r="B270" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>459</v>
+      </c>
+      <c r="B271" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>460</v>
+      </c>
+      <c r="B272" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>461</v>
+      </c>
+      <c r="B273" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>462</v>
+      </c>
+      <c r="B274" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>463</v>
+      </c>
+      <c r="B275" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>464</v>
+      </c>
+      <c r="B276" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>465</v>
+      </c>
+      <c r="B277" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>555</v>
+      </c>
+      <c r="B279" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>556</v>
+      </c>
+      <c r="B280" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>557</v>
+      </c>
+      <c r="B281" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>558</v>
+      </c>
+      <c r="B282" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>559</v>
+      </c>
+      <c r="B283" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>560</v>
+      </c>
+      <c r="B284" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>561</v>
+      </c>
+      <c r="B285" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>562</v>
+      </c>
+      <c r="B286" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>563</v>
+      </c>
+      <c r="B287" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>564</v>
+      </c>
+      <c r="B288" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>565</v>
+      </c>
+      <c r="B289" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>566</v>
+      </c>
+      <c r="B290" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>567</v>
+      </c>
+      <c r="B291" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>568</v>
+      </c>
+      <c r="B292" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>569</v>
+      </c>
+      <c r="B293" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>570</v>
+      </c>
+      <c r="B294" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>571</v>
+      </c>
+      <c r="B295" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>572</v>
+      </c>
+      <c r="B296" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>573</v>
+      </c>
+      <c r="B297" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>599</v>
+      </c>
+      <c r="B301" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>600</v>
+      </c>
+      <c r="B302" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>601</v>
+      </c>
+      <c r="B303" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>602</v>
+      </c>
+      <c r="B304" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>603</v>
+      </c>
+      <c r="B305" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>604</v>
+      </c>
+      <c r="B306" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>605</v>
+      </c>
+      <c r="B307" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>606</v>
+      </c>
+      <c r="B308" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>607</v>
+      </c>
+      <c r="B309" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>608</v>
+      </c>
+      <c r="B310" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>609</v>
+      </c>
+      <c r="B311" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>610</v>
+      </c>
+      <c r="B312" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>611</v>
+      </c>
+      <c r="B313" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>612</v>
+      </c>
+      <c r="B314" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>613</v>
+      </c>
+      <c r="B315" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>614</v>
+      </c>
+      <c r="B316" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>615</v>
+      </c>
+      <c r="B317" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>616</v>
+      </c>
+      <c r="B318" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>617</v>
+      </c>
+      <c r="B319" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>618</v>
+      </c>
+      <c r="B320" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>619</v>
+      </c>
+      <c r="B321" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>620</v>
+      </c>
+      <c r="B322" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>621</v>
+      </c>
+      <c r="B323" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>622</v>
+      </c>
+      <c r="B324" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>623</v>
+      </c>
+      <c r="B325" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>624</v>
+      </c>
+      <c r="B326" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>625</v>
+      </c>
+      <c r="B327" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>657</v>
+      </c>
+      <c r="B330" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>658</v>
+      </c>
+      <c r="B331" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>659</v>
+      </c>
+      <c r="B332" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>660</v>
+      </c>
+      <c r="B333" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>661</v>
+      </c>
+      <c r="B334" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>669</v>
+      </c>
+      <c r="B336" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>672</v>
+      </c>
+      <c r="B337" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>673</v>
+      </c>
+      <c r="B338" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>676</v>
+      </c>
+      <c r="B339" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>677</v>
+      </c>
+      <c r="B340" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>678</v>
+      </c>
+      <c r="B341" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>679</v>
+      </c>
+      <c r="B342" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>680</v>
+      </c>
+      <c r="B343" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>681</v>
+      </c>
+      <c r="B344" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>682</v>
+      </c>
+      <c r="B345" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>692</v>
+      </c>
+      <c r="B347" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>693</v>
+      </c>
+      <c r="B348" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>694</v>
+      </c>
+      <c r="B349" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>698</v>
+      </c>
+      <c r="B350" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>699</v>
+      </c>
+      <c r="B351" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>700</v>
+      </c>
+      <c r="B352" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>701</v>
+      </c>
+      <c r="B353" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>706</v>
+      </c>
+      <c r="B354" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>707</v>
+      </c>
+      <c r="B355" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>708</v>
+      </c>
+      <c r="B356" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/excel-files/image/image-url.xlsx
+++ b/excel-files/image/image-url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\BOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\parrillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24496ED-1B03-4FA5-A28D-8A21174EB38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AE063-4F6F-4CE4-9267-BB8D0568ECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SKU</t>
   </si>
@@ -28,71 +28,59 @@
     <t>url</t>
   </si>
   <si>
-    <t>1009847</t>
-  </si>
-  <si>
-    <t>1014242</t>
-  </si>
-  <si>
-    <t>1014162</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1014242_0_222931274065_10.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1014162_0_223035261388_95.jpeg</t>
-  </si>
-  <si>
-    <t>1014243</t>
-  </si>
-  <si>
-    <t>1013347</t>
-  </si>
-  <si>
-    <t>1014245</t>
-  </si>
-  <si>
-    <t>1010225</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1014243_0_222932062132_10.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1013347_0_222559578215_4.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1014245_0_222932141510_11.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1010225_0_223012668626_66.jpeg</t>
-  </si>
-  <si>
-    <t>1008118</t>
-  </si>
-  <si>
-    <t>1014141</t>
-  </si>
-  <si>
-    <t>1014139</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1008118_0_222442185568_41.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/C7_1014141_0_222825730450_63.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/C5_1014139_0_222826208443_63.jpeg</t>
-  </si>
-  <si>
-    <t>https://dpq25p1ucac70.cloudfront.net/seller-place-files/mrkl-files/1171/ACCESORIOS/1009847_0_23013234187_65.jpeg</t>
+    <t>MGP-74845</t>
+  </si>
+  <si>
+    <t>https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-1-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-7-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-MEDIDAS@.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-2-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-9-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-5-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-3-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-11-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-4-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-12-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-10-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-8-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-ROJO-FOTO-6-min.webp</t>
+  </si>
+  <si>
+    <t>MGP-74836</t>
+  </si>
+  <si>
+    <t>https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-1-min-1.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-7-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-MEDIDAS@.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-2-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-9-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-5-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-13-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-3-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-12-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-11-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-4-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-10-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-8-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-NEGRO-FOTO-6-min.webp</t>
+  </si>
+  <si>
+    <t>MGP-74838</t>
+  </si>
+  <si>
+    <t>https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-1-min-1.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-7-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-MEDIDAS@.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-5-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-13-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-2-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-9-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-12-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-11-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-3-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-4-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-10-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-8-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-AZUL-OSCURO-FOTO-6-min.webp</t>
+  </si>
+  <si>
+    <t>MGP-74848</t>
+  </si>
+  <si>
+    <t>https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-1-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-7-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-MEDIDAS@.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-2-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-9-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-5-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-3-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-11-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-4-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-12-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-10-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-8-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-GOLF-NARANJA-FOTO-6-min.webp</t>
+  </si>
+  <si>
+    <t>MGP-74835</t>
+  </si>
+  <si>
+    <t>https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-1-min-1.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-7-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-MEDIDAS@.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-2-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-9-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-5-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-13-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-3-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-12-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-11-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-4-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-10-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-8-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-ROJO-FOTO-6-min.webp</t>
+  </si>
+  <si>
+    <t>MGP-74837</t>
+  </si>
+  <si>
+    <t>https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-1-min-1.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-7-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-MEDIDAS@.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-2-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-9-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-5-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-13-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-3-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-12-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-11-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-4-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-10-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-8-min.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/07/KAMADO-16-DIAMANTE-VERDE-FOTO-6-min.webp</t>
+  </si>
+  <si>
+    <t>MGP-74721</t>
+  </si>
+  <si>
+    <t>https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-IRON-GRILL-FOTO-1-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-IRON-GRILL-FOTO-7-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-IRON-GRILL-FOTO-6-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-IRON-GRILL-FOTO-4-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-IRON-GRILL-FOTO-5-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-IRON-GRILL-FOTO-2-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-IRON-GRILL-FOTO-3-900x1150px.webp</t>
+  </si>
+  <si>
+    <t>MGP-74716</t>
+  </si>
+  <si>
+    <t>https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-TURBO-GRILL-NEGRO-FOTO-1-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-TURBO-GRILL-ROJO-FOTO-4-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-TURBO-GRILL-NEGRO-FOTO-2-900x1150px.webp|https://www.mrgrillstore.pe/wp-content/uploads/2023/05/PARRILLA-TURBO-GRILL-ROJO-FOTO-3-900x1150px.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +92,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,19 +126,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,11 +436,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -479,13 +454,13 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -493,31 +468,31 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -525,40 +500,21 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{893904F9-1219-4131-8B80-08F56DE30F31}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>